--- a/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.82597223157994</v>
+        <v>24.2658287201123</v>
       </c>
       <c r="C11" t="n">
-        <v>71.28506123527774</v>
+        <v>72.75939136383155</v>
       </c>
       <c r="D11" t="n">
-        <v>86.97854416688706</v>
+        <v>88.23294959156367</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/30 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.89230275544426</v>
+        <v>0.1389230275544426</v>
       </c>
       <c r="C2" t="n">
-        <v>43.15128807830141</v>
+        <v>0.431512880783014</v>
       </c>
       <c r="D2" t="n">
-        <v>54.86773278670755</v>
+        <v>0.5486773278670755</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.12643554744703</v>
+        <v>0.1512643554744703</v>
       </c>
       <c r="C3" t="n">
-        <v>47.56347246715571</v>
+        <v>0.475634724671557</v>
       </c>
       <c r="D3" t="n">
-        <v>65.38806421731941</v>
+        <v>0.6538806421731941</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.60788035125855</v>
+        <v>0.1360788035125855</v>
       </c>
       <c r="C4" t="n">
-        <v>42.33400456582369</v>
+        <v>0.4233400456582369</v>
       </c>
       <c r="D4" t="n">
-        <v>53.28667922558533</v>
+        <v>0.5328667922558533</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.87461454790493</v>
+        <v>0.1387461454790493</v>
       </c>
       <c r="C5" t="n">
-        <v>43.07702231984447</v>
+        <v>0.4307702231984447</v>
       </c>
       <c r="D5" t="n">
-        <v>54.80179157266502</v>
+        <v>0.5480179157266502</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.44267082534006</v>
+        <v>0.1344267082534006</v>
       </c>
       <c r="C6" t="n">
-        <v>41.5729522253176</v>
+        <v>0.415729522253176</v>
       </c>
       <c r="D6" t="n">
-        <v>53.36316477468255</v>
+        <v>0.5336316477468255</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.91827155835325</v>
+        <v>0.1391827155835325</v>
       </c>
       <c r="C7" t="n">
-        <v>43.85833700967486</v>
+        <v>0.4385833700967485</v>
       </c>
       <c r="D7" t="n">
-        <v>58.13863927522716</v>
+        <v>0.5813863927522716</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.56417886798186</v>
+        <v>0.1656417886798186</v>
       </c>
       <c r="C8" t="n">
-        <v>52.40810874983137</v>
+        <v>0.5240810874983137</v>
       </c>
       <c r="D8" t="n">
-        <v>67.99734625410872</v>
+        <v>0.6799734625410873</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.29453948022715</v>
+        <v>0.2029453948022716</v>
       </c>
       <c r="C9" t="n">
-        <v>65.6484722501019</v>
+        <v>0.6564847225010191</v>
       </c>
       <c r="D9" t="n">
-        <v>84.17683198469638</v>
+        <v>0.8417683198469638</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>570.3394441594631</v>
+        <v>5.703394441594631</v>
       </c>
       <c r="C10" t="n">
-        <v>2460.059818717233</v>
+        <v>24.60059818717233</v>
       </c>
       <c r="D10" t="n">
-        <v>2460.074417146639</v>
+        <v>24.60074417146638</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.2658287201123</v>
+        <v>0.2431334572186045</v>
       </c>
       <c r="C11" t="n">
-        <v>72.75939136383155</v>
+        <v>0.7292385206537082</v>
       </c>
       <c r="D11" t="n">
-        <v>88.23294959156367</v>
+        <v>0.8837423392290532</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.62201172733919</v>
+        <v>0.2062201172733919</v>
       </c>
       <c r="C12" t="n">
-        <v>60.9448841559926</v>
+        <v>0.609448841559926</v>
       </c>
       <c r="D12" t="n">
-        <v>77.14593710475913</v>
+        <v>0.7714593710475912</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.3822551134194</v>
+        <v>0.273822551134194</v>
       </c>
       <c r="C13" t="n">
-        <v>83.38208215960302</v>
+        <v>0.8338208215960302</v>
       </c>
       <c r="D13" t="n">
-        <v>96.98157246550026</v>
+        <v>0.9698157246550027</v>
       </c>
     </row>
   </sheetData>
